--- a/Accelerometer/Accelerometer BOM.xlsx
+++ b/Accelerometer/Accelerometer BOM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\williamsj15\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accelerometer Board" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>Title:</t>
   </si>
@@ -69,6 +69,9 @@
     <t>Desicription of part</t>
   </si>
   <si>
+    <t>Ordered</t>
+  </si>
+  <si>
     <t>LIS344ALHTR</t>
   </si>
   <si>
@@ -103,6 +106,33 @@
   </si>
   <si>
     <t>IC OPAMP GP 8MHZ RRO 14TSSOP</t>
+  </si>
+  <si>
+    <t>SN74AHC1G125DCKR</t>
+  </si>
+  <si>
+    <t>296-8745-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/texas-instruments/SN74AHC1G125DCKR/296-8745-1-ND/373803</t>
+  </si>
+  <si>
+    <t>IC BUS BUFF TRI-ST N-INV SC70-5</t>
+  </si>
+  <si>
+    <t>MIC5504-3.3YM5-TR</t>
+  </si>
+  <si>
+    <t>576-4764-1-ND</t>
+  </si>
+  <si>
+    <t>3.3V</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/microchip-technology/MIC5504-3.3YM5-TR/576-4764-1-ND/4864028</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 3.3V 300MA SOT23-5</t>
   </si>
   <si>
     <t>SMF3.3</t>
@@ -723,26 +753,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="117.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="117.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -750,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -758,16 +788,16 @@
         <v>43058</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="13">
-        <f>SUM(E9:E18)</f>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <f>SUM(E9:E20)</f>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -775,7 +805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
@@ -783,24 +813,24 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="18">
-        <f>SUM(F9:F20)</f>
-        <v>281.95999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+        <f>SUM(F9:F22)</f>
+        <v>286.05999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="17" t="s">
         <v>8</v>
       </c>
@@ -825,13 +855,16 @@
       <c r="H8" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="10">
@@ -841,22 +874,23 @@
         <v>8</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" ref="F9:F20" si="0">E9*D9</f>
+        <f t="shared" ref="F9:F22" si="0">E9*D9</f>
         <v>31.943999999999999</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4">
@@ -870,18 +904,19 @@
         <v>184.75200000000001</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4">
@@ -895,40 +930,40 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="4">
-        <v>0.39079999999999998</v>
+        <v>0.314</v>
       </c>
       <c r="E12" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>15.632</v>
-      </c>
-      <c r="G12" s="5" t="s">
+        <v>3.14</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -939,23 +974,24 @@
         <v>35</v>
       </c>
       <c r="D13" s="4">
-        <v>3.83</v>
+        <v>0.12</v>
       </c>
       <c r="E13" s="3">
         <v>8</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>30.64</v>
-      </c>
-      <c r="G13" s="5" t="s">
+        <v>0.96</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -966,14 +1002,14 @@
         <v>40</v>
       </c>
       <c r="D14" s="4">
-        <v>0.123</v>
+        <v>0.39079999999999998</v>
       </c>
       <c r="E14" s="3">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>5.9039999999999999</v>
+        <v>15.632</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>41</v>
@@ -981,8 +1017,9 @@
       <c r="H14" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -993,23 +1030,24 @@
         <v>45</v>
       </c>
       <c r="D15" s="4">
-        <v>0.109</v>
+        <v>3.83</v>
       </c>
       <c r="E15" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
-        <v>1.744</v>
-      </c>
-      <c r="G15" s="6" t="s">
+        <v>30.64</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>46</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
@@ -1020,23 +1058,24 @@
         <v>50</v>
       </c>
       <c r="D16" s="4">
-        <v>2.1999999999999999E-2</v>
+        <v>0.123</v>
       </c>
       <c r="E16" s="3">
         <v>48</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="0"/>
-        <v>1.056</v>
-      </c>
-      <c r="G16" s="6" t="s">
+        <v>5.9039999999999999</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
@@ -1047,14 +1086,14 @@
         <v>55</v>
       </c>
       <c r="D17" s="4">
-        <v>1.9E-2</v>
+        <v>0.109</v>
       </c>
       <c r="E17" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="0"/>
-        <v>0.38</v>
+        <v>1.744</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>56</v>
@@ -1062,8 +1101,9 @@
       <c r="H17" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
@@ -1074,14 +1114,14 @@
         <v>60</v>
       </c>
       <c r="D18" s="4">
-        <v>2.5999999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E18" s="3">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="0"/>
-        <v>0.26</v>
+        <v>1.056</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>61</v>
@@ -1089,8 +1129,9 @@
       <c r="H18" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>63</v>
       </c>
@@ -1101,14 +1142,14 @@
         <v>65</v>
       </c>
       <c r="D19" s="4">
-        <v>1.4E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E19" s="3">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="0"/>
-        <v>0.44800000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>66</v>
@@ -1116,8 +1157,9 @@
       <c r="H19" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>68</v>
       </c>
@@ -1128,41 +1170,106 @@
         <v>70</v>
       </c>
       <c r="D20" s="4">
-        <v>0</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E20" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>32</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="4">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="E22" s="3">
+        <v>8</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" xr:uid="{C3C7C36A-F57B-414A-B690-90EBFB2E6C20}"/>
     <hyperlink ref="G10" r:id="rId2" xr:uid="{EC48792F-9C48-4570-A109-52275731F39A}"/>
     <hyperlink ref="G11" r:id="rId3" xr:uid="{FA116F35-502F-461B-BD1A-D2B0AF124C13}"/>
-    <hyperlink ref="G12" r:id="rId4" xr:uid="{621937F7-048A-44D4-8796-6345D793AFD9}"/>
-    <hyperlink ref="G13" r:id="rId5" xr:uid="{FECEFAF7-1423-4505-BA0B-E5CB31D810C2}"/>
-    <hyperlink ref="G14" r:id="rId6" xr:uid="{C98232E9-AB5B-41F2-AF6C-4C0626BFBDD7}"/>
-    <hyperlink ref="G15" r:id="rId7" xr:uid="{BFAF17C0-B419-4E79-BF47-BA99EE5C48EC}"/>
-    <hyperlink ref="G16" r:id="rId8" xr:uid="{F99CE0ED-F7EF-4089-9B9D-3586434B022C}"/>
-    <hyperlink ref="G17" r:id="rId9" xr:uid="{34E362A5-F2E6-4E3A-AC75-E3464B7E1D22}"/>
-    <hyperlink ref="G18" r:id="rId10" xr:uid="{CEB49C64-0B6A-40F3-ADE9-EA3BF2AF9641}"/>
-    <hyperlink ref="G19" r:id="rId11" xr:uid="{E5D8320C-F58D-4DDD-AB52-323B2040986A}"/>
+    <hyperlink ref="G14" r:id="rId4" xr:uid="{621937F7-048A-44D4-8796-6345D793AFD9}"/>
+    <hyperlink ref="G15" r:id="rId5" xr:uid="{FECEFAF7-1423-4505-BA0B-E5CB31D810C2}"/>
+    <hyperlink ref="G16" r:id="rId6" xr:uid="{C98232E9-AB5B-41F2-AF6C-4C0626BFBDD7}"/>
+    <hyperlink ref="G17" r:id="rId7" xr:uid="{BFAF17C0-B419-4E79-BF47-BA99EE5C48EC}"/>
+    <hyperlink ref="G18" r:id="rId8" xr:uid="{F99CE0ED-F7EF-4089-9B9D-3586434B022C}"/>
+    <hyperlink ref="G19" r:id="rId9" xr:uid="{34E362A5-F2E6-4E3A-AC75-E3464B7E1D22}"/>
+    <hyperlink ref="G20" r:id="rId10" xr:uid="{CEB49C64-0B6A-40F3-ADE9-EA3BF2AF9641}"/>
+    <hyperlink ref="G21" r:id="rId11" xr:uid="{E5D8320C-F58D-4DDD-AB52-323B2040986A}"/>
+    <hyperlink ref="G12" r:id="rId12" xr:uid="{2D0AED5D-1D27-4CF6-B86D-C8F3A3991436}"/>
+    <hyperlink ref="G13" r:id="rId13" xr:uid="{EBF55EBE-ABD7-47AF-B245-FA52982CCB06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007243147E4F356247A83CBB81DAEA8C7C" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d2edc11a83bc180eaa441dc2259ac94">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="082efb51-64fc-428a-9aba-f159b08745ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6920a9d7be87087111c95950d45ecdda" ns2:_="">
     <xsd:import namespace="082efb51-64fc-428a-9aba-f159b08745ca"/>
@@ -1294,12 +1401,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1310,6 +1411,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F5EBACD-F69F-4289-AFDE-AE28827C4D5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CD0FF1-3C32-4B3A-AF0F-6F3879ED45DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1327,15 +1437,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F5EBACD-F69F-4289-AFDE-AE28827C4D5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DEC3584-F74D-4021-862E-D25C25223C33}">
   <ds:schemaRefs>
